--- a/Plotting/result_data_infra1.xlsx
+++ b/Plotting/result_data_infra1.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EHubversions\AdOpT-NET0_Julia\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B62145-ACA6-43B8-BE81-1705B1457373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC2ED7-5C12-49E6-9902-7335B0E017DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -527,13 +540,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1004,6 +1020,58 @@
       </c>
       <c r="I18">
         <v>0.39954374938358089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <f>(D6-$B$6)/$B$6</f>
+        <v>2.6534984061752184E-2</v>
+      </c>
+      <c r="E20">
+        <f>(E6-$C$6)/$C$6</f>
+        <v>4.0295088993322133E-2</v>
+      </c>
+      <c r="F20">
+        <f>(F6-$B$6)/$B$6</f>
+        <v>5.3467890133316763E-4</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:I20" si="0">(G6-$C$6)/$C$6</f>
+        <v>-1.1449447697708301E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:I20" si="1">(H6-$B$6)/$B$6</f>
+        <v>9.9851138287344085E-2</v>
+      </c>
+      <c r="I20">
+        <f>(I6-$C$6)/$C$6</f>
+        <v>0.11463364514425588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <f>(D7-$B$7)/$B$7</f>
+        <v>0.5098914164450834</v>
+      </c>
+      <c r="E21">
+        <f>(E7-$C$7)/$C$7</f>
+        <v>0.77730394500676292</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:I21" si="2">(F7-$B$7)/$B$7</f>
+        <v>-0.38619792849011253</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:I21" si="3">(G7-$C$7)/$C$7</f>
+        <v>-0.40641344901345178</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:I21" si="4">(H7-$B$7)/$B$7</f>
+        <v>0.38877785368869522</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21" si="5">(I7-$C$7)/$C$7</f>
+        <v>0.64635710313684003</v>
       </c>
     </row>
   </sheetData>
